--- a/stock_historical_data/1wk/GPTHEALTH.NS.xlsx
+++ b/stock_historical_data/1wk/GPTHEALTH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q15"/>
+  <dimension ref="A1:R16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,6 +523,11 @@
           <t>two_line_structure</t>
         </is>
       </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>backup</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -576,6 +581,9 @@
       <c r="Q2" t="n">
         <v>0</v>
       </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -629,6 +637,9 @@
       <c r="Q3" t="n">
         <v>0</v>
       </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -682,6 +693,9 @@
       <c r="Q4" t="n">
         <v>0</v>
       </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -735,6 +749,9 @@
       <c r="Q5" t="n">
         <v>0</v>
       </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -788,6 +805,9 @@
       <c r="Q6" t="n">
         <v>0</v>
       </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -841,6 +861,9 @@
       <c r="Q7" t="n">
         <v>0</v>
       </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -894,6 +917,9 @@
       <c r="Q8" t="n">
         <v>0</v>
       </c>
+      <c r="R8" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -947,6 +973,9 @@
       <c r="Q9" t="n">
         <v>0</v>
       </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1000,6 +1029,9 @@
       <c r="Q10" t="n">
         <v>0</v>
       </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1053,6 +1085,9 @@
       <c r="Q11" t="n">
         <v>0</v>
       </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1106,6 +1141,9 @@
       <c r="Q12" t="n">
         <v>0</v>
       </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1159,6 +1197,9 @@
       <c r="Q13" t="n">
         <v>0</v>
       </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1212,6 +1253,9 @@
       <c r="Q14" t="n">
         <v>0</v>
       </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1265,6 +1309,63 @@
       <c r="Q15" t="n">
         <v>0</v>
       </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45446</v>
+      </c>
+      <c r="B16" t="n">
+        <v>148.5</v>
+      </c>
+      <c r="C16" t="n">
+        <v>149.8999938964844</v>
+      </c>
+      <c r="D16" t="n">
+        <v>147.6499938964844</v>
+      </c>
+      <c r="E16" t="n">
+        <v>148</v>
+      </c>
+      <c r="F16" t="n">
+        <v>148</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I16" t="n">
+        <v>6</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>23</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/GPTHEALTH.NS.xlsx
+++ b/stock_historical_data/1wk/GPTHEALTH.NS.xlsx
@@ -1365,7 +1365,9 @@
       <c r="Q16" t="n">
         <v>0</v>
       </c>
-      <c r="R16" t="inlineStr"/>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/GPTHEALTH.NS.xlsx
+++ b/stock_historical_data/1wk/GPTHEALTH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q16"/>
+  <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,6 +523,11 @@
           <t>detect_structure</t>
         </is>
       </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>backup</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -576,6 +581,9 @@
       <c r="Q2" t="n">
         <v>0</v>
       </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -629,6 +637,9 @@
       <c r="Q3" t="n">
         <v>0</v>
       </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -682,6 +693,9 @@
       <c r="Q4" t="n">
         <v>0</v>
       </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -735,6 +749,9 @@
       <c r="Q5" t="n">
         <v>0</v>
       </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -788,6 +805,9 @@
       <c r="Q6" t="n">
         <v>0</v>
       </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -841,6 +861,9 @@
       <c r="Q7" t="n">
         <v>0</v>
       </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -894,6 +917,9 @@
       <c r="Q8" t="n">
         <v>0</v>
       </c>
+      <c r="R8" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -947,6 +973,9 @@
       <c r="Q9" t="n">
         <v>0</v>
       </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1000,6 +1029,9 @@
       <c r="Q10" t="n">
         <v>0</v>
       </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1053,6 +1085,9 @@
       <c r="Q11" t="n">
         <v>0</v>
       </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1106,6 +1141,9 @@
       <c r="Q12" t="n">
         <v>0</v>
       </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1159,6 +1197,9 @@
       <c r="Q13" t="n">
         <v>0</v>
       </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1212,6 +1253,9 @@
       <c r="Q14" t="n">
         <v>0</v>
       </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1265,6 +1309,9 @@
       <c r="Q15" t="n">
         <v>0</v>
       </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1318,6 +1365,63 @@
       <c r="Q16" t="n">
         <v>0</v>
       </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45453</v>
+      </c>
+      <c r="B17" t="n">
+        <v>148.1000061035156</v>
+      </c>
+      <c r="C17" t="n">
+        <v>149.8999938964844</v>
+      </c>
+      <c r="D17" t="n">
+        <v>145.6900024414062</v>
+      </c>
+      <c r="E17" t="n">
+        <v>146.2400054931641</v>
+      </c>
+      <c r="F17" t="n">
+        <v>146.2400054931641</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I17" t="n">
+        <v>6</v>
+      </c>
+      <c r="J17" t="n">
+        <v>10</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>24</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/GPTHEALTH.NS.xlsx
+++ b/stock_historical_data/1wk/GPTHEALTH.NS.xlsx
@@ -1421,7 +1421,9 @@
       <c r="Q17" t="n">
         <v>0</v>
       </c>
-      <c r="R17" t="inlineStr"/>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/GPTHEALTH.NS.xlsx
+++ b/stock_historical_data/1wk/GPTHEALTH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R17"/>
+  <dimension ref="A1:R19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1425,6 +1425,114 @@
         <v>0</v>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="B18" t="n">
+        <v>154.3399963378906</v>
+      </c>
+      <c r="C18" t="n">
+        <v>156.9499969482422</v>
+      </c>
+      <c r="D18" t="n">
+        <v>149.6000061035156</v>
+      </c>
+      <c r="E18" t="n">
+        <v>153.6499938964844</v>
+      </c>
+      <c r="F18" t="n">
+        <v>153.6499938964844</v>
+      </c>
+      <c r="G18" t="n">
+        <v>677374</v>
+      </c>
+      <c r="H18" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I18" t="n">
+        <v>6</v>
+      </c>
+      <c r="J18" t="n">
+        <v>17</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>25</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="B19" t="n">
+        <v>154.8000030517578</v>
+      </c>
+      <c r="C19" t="n">
+        <v>154.8000030517578</v>
+      </c>
+      <c r="D19" t="n">
+        <v>148.6000061035156</v>
+      </c>
+      <c r="E19" t="n">
+        <v>150.9100036621094</v>
+      </c>
+      <c r="F19" t="n">
+        <v>150.9100036621094</v>
+      </c>
+      <c r="G19" t="n">
+        <v>495084</v>
+      </c>
+      <c r="H19" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I19" t="n">
+        <v>6</v>
+      </c>
+      <c r="J19" t="n">
+        <v>24</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>26</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/1wk/GPTHEALTH.NS.xlsx
+++ b/stock_historical_data/1wk/GPTHEALTH.NS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R19"/>
+  <dimension ref="A1:R54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1357,7 +1357,7 @@
         <v>23</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -1477,7 +1477,9 @@
       <c r="Q18" t="n">
         <v>0</v>
       </c>
-      <c r="R18" t="inlineStr"/>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1531,7 +1533,1829 @@
       <c r="Q19" t="n">
         <v>0</v>
       </c>
-      <c r="R19" t="inlineStr"/>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B20" t="n">
+        <v>149.3134423537585</v>
+      </c>
+      <c r="C20" t="n">
+        <v>173.0261886144625</v>
+      </c>
+      <c r="D20" t="n">
+        <v>147.0072185365595</v>
+      </c>
+      <c r="E20" t="n">
+        <v>170.453857421875</v>
+      </c>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="n">
+        <v>2002953</v>
+      </c>
+      <c r="H20" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I20" t="n">
+        <v>7</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>27</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B21" t="n">
+        <v>171.4886972381362</v>
+      </c>
+      <c r="C21" t="n">
+        <v>177.500663329151</v>
+      </c>
+      <c r="D21" t="n">
+        <v>162.5101792122292</v>
+      </c>
+      <c r="E21" t="n">
+        <v>162.9635467529297</v>
+      </c>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="n">
+        <v>1413920</v>
+      </c>
+      <c r="H21" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I21" t="n">
+        <v>7</v>
+      </c>
+      <c r="J21" t="n">
+        <v>8</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>28</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="B22" t="n">
+        <v>165.4274711535776</v>
+      </c>
+      <c r="C22" t="n">
+        <v>178.2891119082672</v>
+      </c>
+      <c r="D22" t="n">
+        <v>162.6185984378621</v>
+      </c>
+      <c r="E22" t="n">
+        <v>165.4866027832031</v>
+      </c>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="n">
+        <v>1282176</v>
+      </c>
+      <c r="H22" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I22" t="n">
+        <v>7</v>
+      </c>
+      <c r="J22" t="n">
+        <v>15</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>29</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="B23" t="n">
+        <v>166.9448984644118</v>
+      </c>
+      <c r="C23" t="n">
+        <v>173.596448425394</v>
+      </c>
+      <c r="D23" t="n">
+        <v>161.128516749997</v>
+      </c>
+      <c r="E23" t="n">
+        <v>172.3238067626953</v>
+      </c>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="n">
+        <v>708974</v>
+      </c>
+      <c r="H23" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I23" t="n">
+        <v>7</v>
+      </c>
+      <c r="J23" t="n">
+        <v>22</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>30</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="B24" t="n">
+        <v>173.9842037619335</v>
+      </c>
+      <c r="C24" t="n">
+        <v>206.7845752280966</v>
+      </c>
+      <c r="D24" t="n">
+        <v>169.5896107113996</v>
+      </c>
+      <c r="E24" t="n">
+        <v>190.3694763183594</v>
+      </c>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="n">
+        <v>4071132</v>
+      </c>
+      <c r="H24" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I24" t="n">
+        <v>7</v>
+      </c>
+      <c r="J24" t="n">
+        <v>29</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>31</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B25" t="n">
+        <v>184.0857918712285</v>
+      </c>
+      <c r="C25" t="n">
+        <v>187.8639533292678</v>
+      </c>
+      <c r="D25" t="n">
+        <v>177.2851103494085</v>
+      </c>
+      <c r="E25" t="n">
+        <v>183.4693603515625</v>
+      </c>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="n">
+        <v>1435423</v>
+      </c>
+      <c r="H25" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I25" t="n">
+        <v>8</v>
+      </c>
+      <c r="J25" t="n">
+        <v>5</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>32</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="B26" t="n">
+        <v>181.4510195372989</v>
+      </c>
+      <c r="C26" t="n">
+        <v>191.2841728111343</v>
+      </c>
+      <c r="D26" t="n">
+        <v>168.6351097779188</v>
+      </c>
+      <c r="E26" t="n">
+        <v>169.5498199462891</v>
+      </c>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="n">
+        <v>931237</v>
+      </c>
+      <c r="H26" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I26" t="n">
+        <v>8</v>
+      </c>
+      <c r="J26" t="n">
+        <v>12</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>33</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="B27" t="n">
+        <v>172.1050585459391</v>
+      </c>
+      <c r="C27" t="n">
+        <v>207.2518640306936</v>
+      </c>
+      <c r="D27" t="n">
+        <v>172.1050585459391</v>
+      </c>
+      <c r="E27" t="n">
+        <v>187.6253356933594</v>
+      </c>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="n">
+        <v>8443248</v>
+      </c>
+      <c r="H27" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I27" t="n">
+        <v>8</v>
+      </c>
+      <c r="J27" t="n">
+        <v>19</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>34</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
+      <c r="R27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="B28" t="n">
+        <v>190.4490082895333</v>
+      </c>
+      <c r="C28" t="n">
+        <v>192.6363600533414</v>
+      </c>
+      <c r="D28" t="n">
+        <v>182.2762541486802</v>
+      </c>
+      <c r="E28" t="n">
+        <v>186.302978515625</v>
+      </c>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="n">
+        <v>1534842</v>
+      </c>
+      <c r="H28" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I28" t="n">
+        <v>8</v>
+      </c>
+      <c r="J28" t="n">
+        <v>26</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>35</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="B29" t="n">
+        <v>187.9136666332633</v>
+      </c>
+      <c r="C29" t="n">
+        <v>188.8084875487974</v>
+      </c>
+      <c r="D29" t="n">
+        <v>177.9711445891753</v>
+      </c>
+      <c r="E29" t="n">
+        <v>179.552001953125</v>
+      </c>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="n">
+        <v>971608</v>
+      </c>
+      <c r="H29" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I29" t="n">
+        <v>9</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>36</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="B30" t="n">
+        <v>182.2364752892821</v>
+      </c>
+      <c r="C30" t="n">
+        <v>204.3188228693159</v>
+      </c>
+      <c r="D30" t="n">
+        <v>175.5849409527217</v>
+      </c>
+      <c r="E30" t="n">
+        <v>187.0287780761719</v>
+      </c>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="n">
+        <v>9545001</v>
+      </c>
+      <c r="H30" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I30" t="n">
+        <v>9</v>
+      </c>
+      <c r="J30" t="n">
+        <v>9</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>37</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0</v>
+      </c>
+      <c r="R30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="B31" t="n">
+        <v>190.8665960384878</v>
+      </c>
+      <c r="C31" t="n">
+        <v>197.9158404950878</v>
+      </c>
+      <c r="D31" t="n">
+        <v>179.9596481913267</v>
+      </c>
+      <c r="E31" t="n">
+        <v>181.7294158935547</v>
+      </c>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="n">
+        <v>2638154</v>
+      </c>
+      <c r="H31" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I31" t="n">
+        <v>9</v>
+      </c>
+      <c r="J31" t="n">
+        <v>16</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>38</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="B32" t="n">
+        <v>182.9324704788631</v>
+      </c>
+      <c r="C32" t="n">
+        <v>190.1805624501205</v>
+      </c>
+      <c r="D32" t="n">
+        <v>179.4625247873129</v>
+      </c>
+      <c r="E32" t="n">
+        <v>182.2762603759766</v>
+      </c>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="n">
+        <v>2044307</v>
+      </c>
+      <c r="H32" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I32" t="n">
+        <v>9</v>
+      </c>
+      <c r="J32" t="n">
+        <v>23</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>39</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="B33" t="n">
+        <v>183.9267251016071</v>
+      </c>
+      <c r="C33" t="n">
+        <v>185.9251666181042</v>
+      </c>
+      <c r="D33" t="n">
+        <v>174.1929872946164</v>
+      </c>
+      <c r="E33" t="n">
+        <v>176.7680969238281</v>
+      </c>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="n">
+        <v>755966</v>
+      </c>
+      <c r="H33" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I33" t="n">
+        <v>9</v>
+      </c>
+      <c r="J33" t="n">
+        <v>30</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>40</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>2</v>
+      </c>
+      <c r="R33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="B34" t="n">
+        <v>180.4567826605131</v>
+      </c>
+      <c r="C34" t="n">
+        <v>183.9366655217351</v>
+      </c>
+      <c r="D34" t="n">
+        <v>166.7360986306207</v>
+      </c>
+      <c r="E34" t="n">
+        <v>179.1045989990234</v>
+      </c>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="n">
+        <v>813372</v>
+      </c>
+      <c r="H34" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I34" t="n">
+        <v>10</v>
+      </c>
+      <c r="J34" t="n">
+        <v>7</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>41</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="B35" t="n">
+        <v>179.1045852384578</v>
+      </c>
+      <c r="C35" t="n">
+        <v>181.0533261662983</v>
+      </c>
+      <c r="D35" t="n">
+        <v>171.021310244251</v>
+      </c>
+      <c r="E35" t="n">
+        <v>171.8067779541016</v>
+      </c>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="n">
+        <v>465104</v>
+      </c>
+      <c r="H35" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I35" t="n">
+        <v>10</v>
+      </c>
+      <c r="J35" t="n">
+        <v>14</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>42</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="B36" t="n">
+        <v>171.3195919204376</v>
+      </c>
+      <c r="C36" t="n">
+        <v>172.9998805438984</v>
+      </c>
+      <c r="D36" t="n">
+        <v>151.5339794668968</v>
+      </c>
+      <c r="E36" t="n">
+        <v>153.6716156005859</v>
+      </c>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="n">
+        <v>1037444</v>
+      </c>
+      <c r="H36" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I36" t="n">
+        <v>10</v>
+      </c>
+      <c r="J36" t="n">
+        <v>21</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>43</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0</v>
+      </c>
+      <c r="R36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B37" t="n">
+        <v>153.1148397875475</v>
+      </c>
+      <c r="C37" t="n">
+        <v>173.8847677726642</v>
+      </c>
+      <c r="D37" t="n">
+        <v>150.6292092715159</v>
+      </c>
+      <c r="E37" t="n">
+        <v>172.6419525146484</v>
+      </c>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="n">
+        <v>924338</v>
+      </c>
+      <c r="H37" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I37" t="n">
+        <v>10</v>
+      </c>
+      <c r="J37" t="n">
+        <v>28</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>44</v>
+      </c>
+      <c r="O37" t="n">
+        <v>2</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="B38" t="n">
+        <v>175.236945037182</v>
+      </c>
+      <c r="C38" t="n">
+        <v>175.8832028795238</v>
+      </c>
+      <c r="D38" t="n">
+        <v>167.0343646311863</v>
+      </c>
+      <c r="E38" t="n">
+        <v>173.7256774902344</v>
+      </c>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="n">
+        <v>616879</v>
+      </c>
+      <c r="H38" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I38" t="n">
+        <v>11</v>
+      </c>
+      <c r="J38" t="n">
+        <v>4</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>45</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="B39" t="n">
+        <v>173.69585692027</v>
+      </c>
+      <c r="C39" t="n">
+        <v>178.9653966331291</v>
+      </c>
+      <c r="D39" t="n">
+        <v>161.8741988272917</v>
+      </c>
+      <c r="E39" t="n">
+        <v>163.0474243164062</v>
+      </c>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="n">
+        <v>589945</v>
+      </c>
+      <c r="H39" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I39" t="n">
+        <v>11</v>
+      </c>
+      <c r="J39" t="n">
+        <v>11</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>46</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0</v>
+      </c>
+      <c r="R39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="B40" t="n">
+        <v>163.5544910978322</v>
+      </c>
+      <c r="C40" t="n">
+        <v>169.0427676305994</v>
+      </c>
+      <c r="D40" t="n">
+        <v>157.2012199836109</v>
+      </c>
+      <c r="E40" t="n">
+        <v>163.3357543945312</v>
+      </c>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="n">
+        <v>651582</v>
+      </c>
+      <c r="H40" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I40" t="n">
+        <v>11</v>
+      </c>
+      <c r="J40" t="n">
+        <v>18</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>47</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="B41" t="n">
+        <v>166.5372466342563</v>
+      </c>
+      <c r="C41" t="n">
+        <v>182.1967190789699</v>
+      </c>
+      <c r="D41" t="n">
+        <v>163.8527686779509</v>
+      </c>
+      <c r="E41" t="n">
+        <v>177.8816680908203</v>
+      </c>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="n">
+        <v>719245</v>
+      </c>
+      <c r="H41" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I41" t="n">
+        <v>11</v>
+      </c>
+      <c r="J41" t="n">
+        <v>25</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>48</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B42" t="n">
+        <v>178.4299926757812</v>
+      </c>
+      <c r="C42" t="n">
+        <v>191.5399932861328</v>
+      </c>
+      <c r="D42" t="n">
+        <v>174.7599945068359</v>
+      </c>
+      <c r="E42" t="n">
+        <v>186.75</v>
+      </c>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="n">
+        <v>1422070</v>
+      </c>
+      <c r="H42" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I42" t="n">
+        <v>12</v>
+      </c>
+      <c r="J42" t="n">
+        <v>2</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>49</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0</v>
+      </c>
+      <c r="R42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="B43" t="n">
+        <v>188</v>
+      </c>
+      <c r="C43" t="n">
+        <v>192</v>
+      </c>
+      <c r="D43" t="n">
+        <v>180.4199981689453</v>
+      </c>
+      <c r="E43" t="n">
+        <v>188.0700073242188</v>
+      </c>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="n">
+        <v>1093970</v>
+      </c>
+      <c r="H43" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I43" t="n">
+        <v>12</v>
+      </c>
+      <c r="J43" t="n">
+        <v>9</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>50</v>
+      </c>
+      <c r="O43" t="n">
+        <v>1</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>1</v>
+      </c>
+      <c r="R43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="B44" t="n">
+        <v>188.0700073242188</v>
+      </c>
+      <c r="C44" t="n">
+        <v>189.3500061035156</v>
+      </c>
+      <c r="D44" t="n">
+        <v>175.4100036621094</v>
+      </c>
+      <c r="E44" t="n">
+        <v>178.0200042724609</v>
+      </c>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="n">
+        <v>673601</v>
+      </c>
+      <c r="H44" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I44" t="n">
+        <v>12</v>
+      </c>
+      <c r="J44" t="n">
+        <v>16</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>51</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="B45" t="n">
+        <v>178.0200042724609</v>
+      </c>
+      <c r="C45" t="n">
+        <v>191.0500030517578</v>
+      </c>
+      <c r="D45" t="n">
+        <v>178.0200042724609</v>
+      </c>
+      <c r="E45" t="n">
+        <v>183.8699951171875</v>
+      </c>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="n">
+        <v>1182857</v>
+      </c>
+      <c r="H45" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I45" t="n">
+        <v>12</v>
+      </c>
+      <c r="J45" t="n">
+        <v>23</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>52</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0</v>
+      </c>
+      <c r="R45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45656</v>
+      </c>
+      <c r="B46" t="n">
+        <v>185</v>
+      </c>
+      <c r="C46" t="n">
+        <v>187.5800018310547</v>
+      </c>
+      <c r="D46" t="n">
+        <v>179.6699981689453</v>
+      </c>
+      <c r="E46" t="n">
+        <v>184.2599945068359</v>
+      </c>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="n">
+        <v>716623</v>
+      </c>
+      <c r="H46" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I46" t="n">
+        <v>12</v>
+      </c>
+      <c r="J46" t="n">
+        <v>30</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>1</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B47" t="n">
+        <v>185.8999938964844</v>
+      </c>
+      <c r="C47" t="n">
+        <v>187.0099945068359</v>
+      </c>
+      <c r="D47" t="n">
+        <v>172.8099975585938</v>
+      </c>
+      <c r="E47" t="n">
+        <v>176.3399963378906</v>
+      </c>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="n">
+        <v>520783</v>
+      </c>
+      <c r="H47" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I47" t="n">
+        <v>1</v>
+      </c>
+      <c r="J47" t="n">
+        <v>6</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="n">
+        <v>2</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>0</v>
+      </c>
+      <c r="R47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B48" t="n">
+        <v>176.6600036621094</v>
+      </c>
+      <c r="C48" t="n">
+        <v>181</v>
+      </c>
+      <c r="D48" t="n">
+        <v>165.1999969482422</v>
+      </c>
+      <c r="E48" t="n">
+        <v>179.8099975585938</v>
+      </c>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="n">
+        <v>453505</v>
+      </c>
+      <c r="H48" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I48" t="n">
+        <v>1</v>
+      </c>
+      <c r="J48" t="n">
+        <v>13</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="n">
+        <v>3</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0</v>
+      </c>
+      <c r="P48" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>0</v>
+      </c>
+      <c r="R48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B49" t="n">
+        <v>179.8099975585938</v>
+      </c>
+      <c r="C49" t="n">
+        <v>182.5899963378906</v>
+      </c>
+      <c r="D49" t="n">
+        <v>170.5800018310547</v>
+      </c>
+      <c r="E49" t="n">
+        <v>171.8399963378906</v>
+      </c>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="n">
+        <v>311339</v>
+      </c>
+      <c r="H49" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I49" t="n">
+        <v>1</v>
+      </c>
+      <c r="J49" t="n">
+        <v>20</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="n">
+        <v>4</v>
+      </c>
+      <c r="O49" t="n">
+        <v>0</v>
+      </c>
+      <c r="P49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>2</v>
+      </c>
+      <c r="R49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B50" t="n">
+        <v>169.8999938964844</v>
+      </c>
+      <c r="C50" t="n">
+        <v>169.8999938964844</v>
+      </c>
+      <c r="D50" t="n">
+        <v>153.4199981689453</v>
+      </c>
+      <c r="E50" t="n">
+        <v>166.2599945068359</v>
+      </c>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="n">
+        <v>381617</v>
+      </c>
+      <c r="H50" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I50" t="n">
+        <v>1</v>
+      </c>
+      <c r="J50" t="n">
+        <v>27</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="n">
+        <v>5</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0</v>
+      </c>
+      <c r="P50" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>0</v>
+      </c>
+      <c r="R50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B51" t="n">
+        <v>167.4600067138672</v>
+      </c>
+      <c r="C51" t="n">
+        <v>172.0500030517578</v>
+      </c>
+      <c r="D51" t="n">
+        <v>164.3200073242188</v>
+      </c>
+      <c r="E51" t="n">
+        <v>165.6600036621094</v>
+      </c>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="n">
+        <v>226310</v>
+      </c>
+      <c r="H51" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I51" t="n">
+        <v>2</v>
+      </c>
+      <c r="J51" t="n">
+        <v>3</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="n">
+        <v>6</v>
+      </c>
+      <c r="O51" t="n">
+        <v>0</v>
+      </c>
+      <c r="P51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>0</v>
+      </c>
+      <c r="R51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45698</v>
+      </c>
+      <c r="B52" t="n">
+        <v>166.5</v>
+      </c>
+      <c r="C52" t="n">
+        <v>168.7400054931641</v>
+      </c>
+      <c r="D52" t="n">
+        <v>143.6399993896484</v>
+      </c>
+      <c r="E52" t="n">
+        <v>143.9600067138672</v>
+      </c>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="n">
+        <v>593413</v>
+      </c>
+      <c r="H52" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I52" t="n">
+        <v>2</v>
+      </c>
+      <c r="J52" t="n">
+        <v>10</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0</v>
+      </c>
+      <c r="N52" t="n">
+        <v>7</v>
+      </c>
+      <c r="O52" t="n">
+        <v>0</v>
+      </c>
+      <c r="P52" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>0</v>
+      </c>
+      <c r="R52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45705</v>
+      </c>
+      <c r="B53" t="n">
+        <v>143.1000061035156</v>
+      </c>
+      <c r="C53" t="n">
+        <v>144.8600006103516</v>
+      </c>
+      <c r="D53" t="n">
+        <v>134.3099975585938</v>
+      </c>
+      <c r="E53" t="n">
+        <v>139.3399963378906</v>
+      </c>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="n">
+        <v>506731</v>
+      </c>
+      <c r="H53" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I53" t="n">
+        <v>2</v>
+      </c>
+      <c r="J53" t="n">
+        <v>17</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0</v>
+      </c>
+      <c r="N53" t="n">
+        <v>8</v>
+      </c>
+      <c r="O53" t="n">
+        <v>0</v>
+      </c>
+      <c r="P53" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>0</v>
+      </c>
+      <c r="R53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45712</v>
+      </c>
+      <c r="B54" t="n">
+        <v>139.6699981689453</v>
+      </c>
+      <c r="C54" t="n">
+        <v>145.9100036621094</v>
+      </c>
+      <c r="D54" t="n">
+        <v>129.6199951171875</v>
+      </c>
+      <c r="E54" t="n">
+        <v>130.9400024414062</v>
+      </c>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="n">
+        <v>562927</v>
+      </c>
+      <c r="H54" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I54" t="n">
+        <v>2</v>
+      </c>
+      <c r="J54" t="n">
+        <v>24</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0</v>
+      </c>
+      <c r="N54" t="n">
+        <v>9</v>
+      </c>
+      <c r="O54" t="n">
+        <v>0</v>
+      </c>
+      <c r="P54" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>0</v>
+      </c>
+      <c r="R54" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/GPTHEALTH.NS.xlsx
+++ b/stock_historical_data/1wk/GPTHEALTH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R54"/>
+  <dimension ref="A1:R58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
@@ -1587,7 +1587,9 @@
       <c r="Q20" t="n">
         <v>0</v>
       </c>
-      <c r="R20" t="inlineStr"/>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1639,7 +1641,9 @@
       <c r="Q21" t="n">
         <v>0</v>
       </c>
-      <c r="R21" t="inlineStr"/>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1691,7 +1695,9 @@
       <c r="Q22" t="n">
         <v>0</v>
       </c>
-      <c r="R22" t="inlineStr"/>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1743,7 +1749,9 @@
       <c r="Q23" t="n">
         <v>0</v>
       </c>
-      <c r="R23" t="inlineStr"/>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1795,7 +1803,9 @@
       <c r="Q24" t="n">
         <v>0</v>
       </c>
-      <c r="R24" t="inlineStr"/>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1847,7 +1857,9 @@
       <c r="Q25" t="n">
         <v>0</v>
       </c>
-      <c r="R25" t="inlineStr"/>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1899,7 +1911,9 @@
       <c r="Q26" t="n">
         <v>0</v>
       </c>
-      <c r="R26" t="inlineStr"/>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1951,7 +1965,9 @@
       <c r="Q27" t="n">
         <v>0</v>
       </c>
-      <c r="R27" t="inlineStr"/>
+      <c r="R27" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -2003,7 +2019,9 @@
       <c r="Q28" t="n">
         <v>0</v>
       </c>
-      <c r="R28" t="inlineStr"/>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -2055,7 +2073,9 @@
       <c r="Q29" t="n">
         <v>0</v>
       </c>
-      <c r="R29" t="inlineStr"/>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -2107,7 +2127,9 @@
       <c r="Q30" t="n">
         <v>0</v>
       </c>
-      <c r="R30" t="inlineStr"/>
+      <c r="R30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -2159,7 +2181,9 @@
       <c r="Q31" t="n">
         <v>0</v>
       </c>
-      <c r="R31" t="inlineStr"/>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -2211,7 +2235,9 @@
       <c r="Q32" t="n">
         <v>0</v>
       </c>
-      <c r="R32" t="inlineStr"/>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -2263,7 +2289,9 @@
       <c r="Q33" t="n">
         <v>2</v>
       </c>
-      <c r="R33" t="inlineStr"/>
+      <c r="R33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -2315,7 +2343,9 @@
       <c r="Q34" t="n">
         <v>0</v>
       </c>
-      <c r="R34" t="inlineStr"/>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -2367,7 +2397,9 @@
       <c r="Q35" t="n">
         <v>0</v>
       </c>
-      <c r="R35" t="inlineStr"/>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -2419,7 +2451,9 @@
       <c r="Q36" t="n">
         <v>0</v>
       </c>
-      <c r="R36" t="inlineStr"/>
+      <c r="R36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -2471,7 +2505,9 @@
       <c r="Q37" t="n">
         <v>0</v>
       </c>
-      <c r="R37" t="inlineStr"/>
+      <c r="R37" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -2523,7 +2559,9 @@
       <c r="Q38" t="n">
         <v>0</v>
       </c>
-      <c r="R38" t="inlineStr"/>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -2575,7 +2613,9 @@
       <c r="Q39" t="n">
         <v>0</v>
       </c>
-      <c r="R39" t="inlineStr"/>
+      <c r="R39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -2627,7 +2667,9 @@
       <c r="Q40" t="n">
         <v>0</v>
       </c>
-      <c r="R40" t="inlineStr"/>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -2679,7 +2721,9 @@
       <c r="Q41" t="n">
         <v>0</v>
       </c>
-      <c r="R41" t="inlineStr"/>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -2731,7 +2775,9 @@
       <c r="Q42" t="n">
         <v>0</v>
       </c>
-      <c r="R42" t="inlineStr"/>
+      <c r="R42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -2783,7 +2829,9 @@
       <c r="Q43" t="n">
         <v>1</v>
       </c>
-      <c r="R43" t="inlineStr"/>
+      <c r="R43" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -2835,7 +2883,9 @@
       <c r="Q44" t="n">
         <v>0</v>
       </c>
-      <c r="R44" t="inlineStr"/>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -2887,7 +2937,9 @@
       <c r="Q45" t="n">
         <v>0</v>
       </c>
-      <c r="R45" t="inlineStr"/>
+      <c r="R45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -2939,7 +2991,9 @@
       <c r="Q46" t="n">
         <v>0</v>
       </c>
-      <c r="R46" t="inlineStr"/>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -2991,7 +3045,9 @@
       <c r="Q47" t="n">
         <v>0</v>
       </c>
-      <c r="R47" t="inlineStr"/>
+      <c r="R47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -3043,7 +3099,9 @@
       <c r="Q48" t="n">
         <v>0</v>
       </c>
-      <c r="R48" t="inlineStr"/>
+      <c r="R48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -3095,7 +3153,9 @@
       <c r="Q49" t="n">
         <v>2</v>
       </c>
-      <c r="R49" t="inlineStr"/>
+      <c r="R49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -3147,7 +3207,9 @@
       <c r="Q50" t="n">
         <v>0</v>
       </c>
-      <c r="R50" t="inlineStr"/>
+      <c r="R50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -3199,7 +3261,9 @@
       <c r="Q51" t="n">
         <v>0</v>
       </c>
-      <c r="R51" t="inlineStr"/>
+      <c r="R51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -3251,7 +3315,9 @@
       <c r="Q52" t="n">
         <v>0</v>
       </c>
-      <c r="R52" t="inlineStr"/>
+      <c r="R52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -3303,7 +3369,9 @@
       <c r="Q53" t="n">
         <v>0</v>
       </c>
-      <c r="R53" t="inlineStr"/>
+      <c r="R53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -3355,7 +3423,217 @@
       <c r="Q54" t="n">
         <v>0</v>
       </c>
-      <c r="R54" t="inlineStr"/>
+      <c r="R54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45719</v>
+      </c>
+      <c r="B55" t="n">
+        <v>131.6000061035156</v>
+      </c>
+      <c r="C55" t="n">
+        <v>137.4900054931641</v>
+      </c>
+      <c r="D55" t="n">
+        <v>126.0999984741211</v>
+      </c>
+      <c r="E55" t="n">
+        <v>135.2599945068359</v>
+      </c>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="n">
+        <v>804814</v>
+      </c>
+      <c r="H55" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I55" t="n">
+        <v>3</v>
+      </c>
+      <c r="J55" t="n">
+        <v>3</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0</v>
+      </c>
+      <c r="N55" t="n">
+        <v>10</v>
+      </c>
+      <c r="O55" t="n">
+        <v>0</v>
+      </c>
+      <c r="P55" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>0</v>
+      </c>
+      <c r="R55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45726</v>
+      </c>
+      <c r="B56" t="n">
+        <v>135</v>
+      </c>
+      <c r="C56" t="n">
+        <v>141.5500030517578</v>
+      </c>
+      <c r="D56" t="n">
+        <v>132</v>
+      </c>
+      <c r="E56" t="n">
+        <v>136.3699951171875</v>
+      </c>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="n">
+        <v>655738</v>
+      </c>
+      <c r="H56" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I56" t="n">
+        <v>3</v>
+      </c>
+      <c r="J56" t="n">
+        <v>10</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0</v>
+      </c>
+      <c r="N56" t="n">
+        <v>11</v>
+      </c>
+      <c r="O56" t="n">
+        <v>0</v>
+      </c>
+      <c r="P56" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>0</v>
+      </c>
+      <c r="R56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45733</v>
+      </c>
+      <c r="B57" t="n">
+        <v>136.5</v>
+      </c>
+      <c r="C57" t="n">
+        <v>149.5</v>
+      </c>
+      <c r="D57" t="n">
+        <v>133.5</v>
+      </c>
+      <c r="E57" t="n">
+        <v>146.1199951171875</v>
+      </c>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="n">
+        <v>565971</v>
+      </c>
+      <c r="H57" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I57" t="n">
+        <v>3</v>
+      </c>
+      <c r="J57" t="n">
+        <v>17</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0</v>
+      </c>
+      <c r="N57" t="n">
+        <v>12</v>
+      </c>
+      <c r="O57" t="n">
+        <v>0</v>
+      </c>
+      <c r="P57" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>0</v>
+      </c>
+      <c r="R57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45740</v>
+      </c>
+      <c r="B58" t="n">
+        <v>149</v>
+      </c>
+      <c r="C58" t="n">
+        <v>150</v>
+      </c>
+      <c r="D58" t="n">
+        <v>134.6100006103516</v>
+      </c>
+      <c r="E58" t="n">
+        <v>146.9700012207031</v>
+      </c>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="n">
+        <v>1048594</v>
+      </c>
+      <c r="H58" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I58" t="n">
+        <v>3</v>
+      </c>
+      <c r="J58" t="n">
+        <v>24</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0</v>
+      </c>
+      <c r="N58" t="n">
+        <v>13</v>
+      </c>
+      <c r="O58" t="n">
+        <v>0</v>
+      </c>
+      <c r="P58" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>0</v>
+      </c>
+      <c r="R58" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
